--- a/uploads/agendamentos (5) (1).xlsx
+++ b/uploads/agendamentos (5) (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F808A-A9F2-4F12-B77E-D661FC4B65C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE16B7-64CB-4082-AD55-B6D278330A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>Chave NF</t>
   </si>
@@ -516,6 +516,15 @@
   </si>
   <si>
     <t>5585996620688</t>
+  </si>
+  <si>
+    <t>5585982333434</t>
+  </si>
+  <si>
+    <t>devolução</t>
+  </si>
+  <si>
+    <t>fogão brastemp</t>
   </si>
 </sst>
 </file>
@@ -899,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,6 +1187,15 @@
       <c r="AB3">
         <v>1</v>
       </c>
+      <c r="AC3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
